--- a/Migration/SQLServer/6_Bonus/POC-or-MVP-Scoping-Project-Plan-Tasks-Starter.xlsx
+++ b/Migration/SQLServer/6_Bonus/POC-or-MVP-Scoping-Project-Plan-Tasks-Starter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/gazho_microsoft_com/Documents/Zhou_Data/Projects_Assets_IP_and_Tools/SQL-Sever-to-Azure-Synapse-Migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repos\AzureSynapseScriptsAndAccelerators\Migration\SQLServer\6_Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="523" documentId="8_{CEBE35DF-7A19-467B-996D-D766FC514CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2109F499-4160-4415-84EA-66107D96FCFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF919B3-9DB8-4C17-83DF-09D932F751BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="255" windowWidth="27885" windowHeight="11775" xr2:uid="{37654A33-25F7-4590-AAF3-BE430D6C5D64}"/>
+    <workbookView xWindow="0" yWindow="1215" windowWidth="26730" windowHeight="13815" xr2:uid="{37654A33-25F7-4590-AAF3-BE430D6C5D64}"/>
   </bookViews>
   <sheets>
     <sheet name="POC-or-MVP-Access" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="243">
   <si>
     <t>Task(s)</t>
   </si>
@@ -941,9 +941,6 @@
 </t>
   </si>
   <si>
-    <t>Microsoft Cloud Solution Architect</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -982,6 +979,12 @@
   <si>
     <t xml:space="preserve">Etc.
 </t>
+  </si>
+  <si>
+    <t>Microsoft Cloud Solution Architects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server DW to Azure Synapse Migration </t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,6 +1072,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1311,7 +1330,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1425,6 +1444,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,16 +1478,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1775,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A54E25-35BB-459F-9249-18E7B4D67AB4}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,167 +1812,173 @@
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="C2" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="63"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="19">
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
+    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+    <row r="7" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+    <row r="8" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>7</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1961,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EF71EF-08B4-477E-9801-CF9F005987B4}">
-  <dimension ref="B2:J66"/>
+  <dimension ref="B2:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,179 +2008,132 @@
     <col min="10" max="10" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D4" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D5" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
+      <c r="D6" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-    </row>
-    <row r="6" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="50" t="s">
+      <c r="D7" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="55"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+    <row r="14" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1">
-        <f>I12</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="1">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1">
-        <f>I13</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="4" t="s">
         <v>103</v>
       </c>
@@ -2163,21 +2145,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>56</v>
+    <row r="15" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="4" t="s">
@@ -2187,137 +2169,137 @@
         <v>8</v>
       </c>
       <c r="J15" s="1">
-        <v>4</v>
+        <f>I15</f>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>57</v>
+      <c r="B16" s="16">
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="12" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="4" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1">
         <f>I16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
+        <f>I18</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+    <row r="20" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="1" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="I20" s="1">
         <v>4</v>
@@ -2326,25 +2308,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I21" s="1">
         <v>4</v>
@@ -2353,25 +2335,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="1" t="s">
-        <v>50</v>
+      <c r="H22" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -2380,141 +2362,147 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F23" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I23" s="1">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>188</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F27" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="16">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>188</v>
@@ -2528,94 +2516,94 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29" s="1">
+        <v>24</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="16">
         <v>16</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
-        <v>18</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I30" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="25">
-        <v>19</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="26"/>
+    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="16">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F31" s="11" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17">
-        <v>20</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>4</v>
+    <row r="32" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B32" s="16">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="1" t="s">
@@ -2624,184 +2612,208 @@
       <c r="I32" s="1">
         <v>24</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="25">
+        <v>19</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17">
+        <v>20</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="1" t="s">
+      <c r="J34" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="1">
-        <f>SUM(I12:I32)</f>
+      <c r="I37" s="1">
+        <f>SUM(I14:I34)</f>
         <v>165</v>
       </c>
-      <c r="J35" s="1">
-        <f>SUM(J12:J32)</f>
+      <c r="J37" s="1">
+        <f>SUM(J14:J34)</f>
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="1">
-        <f>I35/8</f>
-        <v>20.625</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" s="1">
-        <f>SUM(I12:I16)/8</f>
-        <v>4</v>
-      </c>
-      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="1">
+        <f>I37/8</f>
+        <v>20.625</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I39" s="1">
+        <f>SUM(I14:I18)/8</f>
+        <v>4</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I38" s="1">
-        <f>I36-I37</f>
+      <c r="I40" s="1">
+        <f>I38-I39</f>
         <v>16.625</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C43" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D43" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E43" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F43" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="3" t="s">
+      <c r="G43" s="50"/>
+      <c r="H43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" s="1">
-        <v>4</v>
-      </c>
-      <c r="J42" s="1">
-        <f>I42</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="1">
-        <v>5</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="1">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1">
-        <f>I43</f>
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1">
-        <v>10</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1">
+        <f>I44</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="1">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1">
+        <f>I45</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="1">
+        <v>10</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2813,7 +2825,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2825,7 +2837,7 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2836,7 +2848,9 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+      <c r="B50" s="1">
+        <v>7</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2846,7 +2860,9 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+      <c r="B51" s="1">
+        <v>8</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2856,7 +2872,7 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2866,7 +2882,7 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2875,24 +2891,30 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C56" s="55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="19"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="C58" s="47" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
@@ -2950,13 +2972,27 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="19"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="19"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2967,7 +3003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D28ACD-8FB2-4462-BD9A-8C8DAA744353}">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -2980,15 +3016,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
-        <v>229</v>
+      <c r="B1" s="47" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="2:5" ht="63" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
@@ -3140,117 +3176,117 @@
       <c r="B16" s="19">
         <v>8</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="C16" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
         <v>9</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="C17" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="19">
         <v>10</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="C18" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="19">
         <v>11</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="C19" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="45">
         <v>1</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="45">
         <v>2</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="45">
         <v>3</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="45">
         <v>4</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="C27" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="45">
         <v>5</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="C28" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="45">
         <v>6</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
+      <c r="C29" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="46"/>
@@ -3292,16 +3328,16 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
-        <v>237</v>
-      </c>
-    </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
@@ -3365,11 +3401,11 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="29"/>
-      <c r="C14" s="59"/>
+      <c r="C14" s="51"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
-        <v>232</v>
+      <c r="B15" s="47" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3825,8 +3861,8 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
-        <v>233</v>
+      <c r="B38" s="47" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3951,8 +3987,8 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="55" t="s">
-        <v>234</v>
+      <c r="B52" s="47" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="60" x14ac:dyDescent="0.25">
@@ -4082,8 +4118,8 @@
       <c r="D65" s="1"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="55" t="s">
-        <v>235</v>
+      <c r="B67" s="47" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4095,6 +4131,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="2ad19731-bf92-4566-a5d3-8cd60df74144" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100052416DCB153D548988CAA732CB327E7" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42dd1a5d83821a87ff9ceaffe069209a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="2ad19731-bf92-4566-a5d3-8cd60df74144" xmlns:ns4="d2c2c530-d459-4b36-8868-6c7630e191ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42ab534074a8cf87cdd59ec1b7ab3d93" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4352,26 +4407,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="2ad19731-bf92-4566-a5d3-8cd60df74144" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE38C744-00CB-4A2A-A697-43F3D145CF01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273F043C-5737-4FBE-BFE8-EEA416A4AC83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ad19731-bf92-4566-a5d3-8cd60df74144"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2CBF02F-6109-4174-9705-7027E0BC6112}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4391,25 +4446,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273F043C-5737-4FBE-BFE8-EEA416A4AC83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ad19731-bf92-4566-a5d3-8cd60df74144"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE38C744-00CB-4A2A-A697-43F3D145CF01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
